--- a/src/test/resources/testdata/EasyQuoteL6.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Transcription" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="282">
   <si>
     <t>Source</t>
   </si>
@@ -206,12 +206,722 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>Mailing Option</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>2 - 3 days</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Additional Services</t>
+  </si>
+  <si>
+    <t>Additional Services Status</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>283.5</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>304.5</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>346.5</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>357.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>620.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>651.0</t>
+  </si>
+  <si>
+    <t>640.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>672.0</t>
+  </si>
+  <si>
+    <t>680.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>714.0</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>1280.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>1344.0</t>
+  </si>
+  <si>
+    <t>1220.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>1281.0</t>
+  </si>
+  <si>
+    <t>1240.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>1302.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>222.6</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>516.0</t>
+  </si>
+  <si>
+    <t>536.0</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>562.8</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t>1796.4</t>
+  </si>
+  <si>
+    <t>1816.4</t>
+  </si>
+  <si>
+    <t>90.82</t>
+  </si>
+  <si>
+    <t>1907.22</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2495.0</t>
+  </si>
+  <si>
+    <t>2535.0</t>
+  </si>
+  <si>
+    <t>126.75</t>
+  </si>
+  <si>
+    <t>2661.75</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>131.25</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>252.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>165.9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>276.0</t>
+  </si>
+  <si>
+    <t>296.0</t>
+  </si>
+  <si>
+    <t>14.8</t>
+  </si>
+  <si>
+    <t>310.8</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2430.0</t>
+  </si>
+  <si>
+    <t>2470.0</t>
+  </si>
+  <si>
+    <t>123.5</t>
+  </si>
+  <si>
+    <t>2593.5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8.48</t>
+  </si>
+  <si>
+    <t>59.36</t>
+  </si>
+  <si>
+    <t>139.36</t>
+  </si>
+  <si>
+    <t>6.97</t>
+  </si>
+  <si>
+    <t>146.33</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>68.25</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 65.0
+Actual : 45.0</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>94.5</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 90.0
+Actual : 50.0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 160.0
+Actual : 80.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 50.0
+Actual : 30.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 60.0
+Actual : 20.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 90.0
+Actual : 10.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 60.0
+Actual : 40.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 70.0
+Actual : 30.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 100.0
+Actual : 20.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 30.0
+Actual : 10.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>540.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>567.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>99.75</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>115.5</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>72.45</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>100.8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>720.0</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>840.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 720.0
+Actual : 144.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 800.0
+Actual : 224.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 40.0
+Actual : 11.2</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 840.0
+Actual : 235.2</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>1340.0</t>
+  </si>
+  <si>
+    <t>1360.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>1428.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 1340.0
+Actual : 1072.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 1360.0
+Actual : 1092.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 68.0
+Actual : 54.6</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 1428.0
+Actual : 1146.6</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2600.0</t>
+  </si>
+  <si>
+    <t>2640.0</t>
+  </si>
+  <si>
+    <t>2772.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 2600.0
+Actual : 1040.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 2640.0
+Actual : 1080.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 132.0
+Actual : 54.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 2772.0
+Actual : 1134.0</t>
+  </si>
+  <si>
+    <t>4320.0</t>
+  </si>
+  <si>
+    <t>4400.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>4620.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 4320.0
+Actual : 864.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 4400.0
+Actual : 944.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 220.0
+Actual : 47.2</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 4620.0
+Actual : 991.2</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>172.2</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>9640.0</t>
+  </si>
+  <si>
+    <t>482.0</t>
+  </si>
+  <si>
+    <t>10122.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -261,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +1005,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,23 +1367,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5703125" style="10" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" style="10"/>
-    <col min="7" max="7" width="11.5703125" style="10" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="5" style="10" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" style="10" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" style="10" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" style="10" width="11.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:21" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,41 +1406,50 @@
       <c r="G1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" customHeight="1">
+    <row r="2" spans="1:21" ht="28.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -736,11 +1459,11 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9">
-        <v>180</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
+      <c r="D2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>62</v>
@@ -748,19 +1471,50 @@
       <c r="G2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -770,31 +1524,62 @@
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9">
-        <v>250</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
+      <c r="D3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -804,31 +1589,62 @@
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12">
-        <v>5</v>
+      <c r="D4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -838,11 +1654,11 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
+      <c r="D5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>62</v>
@@ -850,19 +1666,50 @@
       <c r="G5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
@@ -872,31 +1719,62 @@
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
-        <v>100</v>
-      </c>
-      <c r="E6" s="12">
-        <v>5</v>
+      <c r="D6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -906,31 +1784,62 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
+      <c r="D7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -940,11 +1849,11 @@
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12">
-        <v>7</v>
+      <c r="D8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>62</v>
@@ -952,19 +1861,50 @@
       <c r="G8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -974,31 +1914,62 @@
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12">
-        <v>7</v>
+      <c r="D9" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -1008,31 +1979,62 @@
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12">
-        <v>16</v>
+      <c r="D10" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1042,11 +2044,11 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12">
-        <v>16</v>
+      <c r="D11" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>62</v>
@@ -1054,19 +2056,50 @@
       <c r="G11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="28.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1076,31 +2109,62 @@
       <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9">
-        <v>65</v>
-      </c>
-      <c r="E12" s="12">
-        <v>16</v>
+      <c r="D12" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="28.5" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1110,31 +2174,62 @@
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9">
-        <v>54</v>
-      </c>
-      <c r="E13" s="12">
-        <v>16</v>
+      <c r="D13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="28.5" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1144,11 +2239,11 @@
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12">
-        <v>16</v>
+      <c r="D14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>62</v>
@@ -1156,19 +2251,50 @@
       <c r="G14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="28.5" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1178,29 +2304,60 @@
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9">
-        <v>600</v>
-      </c>
-      <c r="E15" s="12">
-        <v>16</v>
+      <c r="D15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="H15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1215,20 +2372,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:22" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1253,41 +2410,50 @@
       <c r="H1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.5" customHeight="1">
+    <row r="2" spans="1:22" ht="28.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1300,31 +2466,62 @@
       <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1337,31 +2534,62 @@
       <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3">
-        <v>20</v>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="28.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1374,31 +2602,62 @@
       <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3">
-        <v>20</v>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -1411,31 +2670,62 @@
       <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20</v>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1448,31 +2738,62 @@
       <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1485,31 +2806,62 @@
       <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3">
-        <v>20</v>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1522,31 +2874,62 @@
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3">
-        <v>20</v>
+      <c r="E8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1559,31 +2942,62 @@
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20</v>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1596,31 +3010,62 @@
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20</v>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="28.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1633,31 +3078,62 @@
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3">
-        <v>20</v>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="28.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -1670,31 +3146,62 @@
       <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>60</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20</v>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="28.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1707,31 +3214,62 @@
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <v>60</v>
-      </c>
-      <c r="G13" s="3">
-        <v>20</v>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1744,31 +3282,62 @@
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20</v>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1781,31 +3350,62 @@
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>60</v>
-      </c>
-      <c r="G15" s="3">
-        <v>20</v>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="28.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1818,31 +3418,62 @@
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
-        <v>120</v>
-      </c>
-      <c r="G16" s="3">
-        <v>20</v>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-    </row>
-    <row r="17" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="28.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1855,31 +3486,62 @@
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3">
-        <v>120</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20</v>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="28.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1892,31 +3554,62 @@
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>120</v>
-      </c>
-      <c r="G18" s="3">
-        <v>20</v>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="28.5" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1929,31 +3622,62 @@
       <c r="D19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
-        <v>20</v>
+      <c r="E19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="28.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1966,31 +3690,62 @@
       <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3">
-        <v>43</v>
-      </c>
-      <c r="G20" s="3">
-        <v>20</v>
+      <c r="E20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="28.5" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -2003,31 +3758,62 @@
       <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>120</v>
-      </c>
-      <c r="G21" s="3">
-        <v>20</v>
+      <c r="E21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="28.5" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -2040,29 +3826,60 @@
       <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="4">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>120</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20</v>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="I22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2077,21 +3894,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:22" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2116,41 +3933,50 @@
       <c r="H1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.5" customHeight="1">
+    <row r="2" spans="1:22" ht="28.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2163,31 +3989,62 @@
       <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4">
-        <v>180</v>
-      </c>
-      <c r="F2" s="3">
-        <v>9.98</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -2200,31 +4057,62 @@
       <c r="D3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="4">
-        <v>250</v>
-      </c>
-      <c r="F3" s="3">
-        <v>9.98</v>
-      </c>
-      <c r="G3" s="3">
-        <v>20</v>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -2237,31 +4125,62 @@
       <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>20</v>
+      <c r="E4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="28.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2274,31 +4193,62 @@
       <c r="D5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3">
-        <v>20</v>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2311,31 +4261,62 @@
       <c r="D6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="4">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
+      <c r="E6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" ht="28.5" customHeight="1">
+      <c r="I6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2348,31 +4329,62 @@
       <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" ht="28.5" customHeight="1">
+      <c r="E7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -2385,31 +4397,62 @@
       <c r="D8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="4">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="28.5" customHeight="1">
+      <c r="E8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2422,31 +4465,62 @@
       <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="4">
-        <v>54</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="28.5" customHeight="1">
+      <c r="E9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2459,29 +4533,60 @@
       <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="4">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8.48</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2496,23 +4601,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.5703125" style="10" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" style="10"/>
-    <col min="7" max="7" width="11.5703125" style="10" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="5" style="10" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" style="10" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" style="10" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" style="10" width="11.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:21" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2534,41 +4640,50 @@
       <c r="G1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" customHeight="1">
+    <row r="2" spans="1:21" ht="28.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2578,8 +4693,8 @@
       <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9">
-        <v>12</v>
+      <c r="D2" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>58</v>
@@ -2590,19 +4705,50 @@
       <c r="G2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2612,31 +4758,62 @@
       <c r="C3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="9">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12">
-        <v>5</v>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
@@ -2646,31 +4823,62 @@
       <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9">
-        <v>8</v>
+      <c r="D4" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>57</v>
       </c>
@@ -2680,11 +4888,11 @@
       <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="9">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
+      <c r="D5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>62</v>
@@ -2692,19 +4900,50 @@
       <c r="G5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -2714,31 +4953,62 @@
       <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="9">
-        <v>4</v>
+      <c r="D6" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="28.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -2748,31 +5018,62 @@
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
+      <c r="D7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="28.5" customHeight="1">
+        <v>68</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -2782,8 +5083,8 @@
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="9">
-        <v>8</v>
+      <c r="D8" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>60</v>
@@ -2791,22 +5092,53 @@
       <c r="F8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="28.5" customHeight="1">
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -2816,31 +5148,62 @@
       <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="12">
-        <v>5</v>
+      <c r="D9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" ht="28.5" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2850,31 +5213,62 @@
       <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="9">
-        <v>4</v>
+      <c r="D10" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="28.5" customHeight="1">
+      <c r="H10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -2884,11 +5278,11 @@
       <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
-        <v>5</v>
+      <c r="D11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>62</v>
@@ -2896,17 +5290,48 @@
       <c r="G11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="H11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
